--- a/biology/Médecine/Conisation/Conisation.xlsx
+++ b/biology/Médecine/Conisation/Conisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La conisation est une résection chirurgicale (ablation) d’un fragment conoïde (de forme conique) du tissu du col utérin.
 Le but est de déterminer, par une étude histologique, le caractère bénin ou malin (confirmer ou écarter un diagnostic de cancer) de l'anomalie de la muqueuse du col utérin au moyen d'un microscope.
